--- a/LocalData/技能配置表.xlsx
+++ b/LocalData/技能配置表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>闪现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,21 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1,2,3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{1,2,3},{1,2,3}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{1,2,3},{1,2,4}}</t>
-  </si>
-  <si>
     <t>{{1,2,3},{1,2,5}}</t>
   </si>
   <si>
@@ -90,6 +71,42 @@
   </si>
   <si>
     <t>{{1,2,3},{1,2,9}}</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>{a,b,c}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{1.1,2,3},{1,2,3}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪现1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪现2</t>
+  </si>
+  <si>
+    <t>闪现3</t>
+  </si>
+  <si>
+    <t>闪现4</t>
+  </si>
+  <si>
+    <t>闪现5</t>
+  </si>
+  <si>
+    <t>闪现6</t>
+  </si>
+  <si>
+    <t>闪现7</t>
+  </si>
+  <si>
+    <t>闪现8</t>
   </si>
 </sst>
 </file>
@@ -436,7 +453,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -455,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -474,16 +491,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -491,13 +508,10 @@
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>10001</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -505,13 +519,13 @@
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>10002</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -519,13 +533,13 @@
         <v>10003</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>10003</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -533,13 +547,13 @@
         <v>10004</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>10004</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -547,13 +561,13 @@
         <v>10005</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>10005</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -561,13 +575,13 @@
         <v>10006</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>10006</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -575,13 +589,13 @@
         <v>10007</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>10007</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -589,13 +603,13 @@
         <v>10008</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>10008</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/LocalData/技能配置表.xlsx
+++ b/LocalData/技能配置表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="tab_skill" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t xml:space="preserve">技能ID</t>
   </si>
@@ -476,8 +476,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -529,10 +529,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -765,281 +765,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>10002</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>10005</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>123</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1444</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>10004</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>10004</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>124</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1445</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>10005</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>10005</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1446</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>10006</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>10006</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>126</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1447</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>10007</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>10007</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>127</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1448</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>10008</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>10008</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>128</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1449</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
